--- a/TestsTimeComparison.xlsx
+++ b/TestsTimeComparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF18B33-9CAA-4327-B78B-6C492592F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58279B32-AFD5-4E9D-9655-BC467B78B79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="4800" windowWidth="18564" windowHeight="10548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>III</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>133 - 145 ms</t>
+  </si>
+  <si>
+    <t>1 - 2 ms</t>
+  </si>
+  <si>
+    <t>1 ms</t>
+  </si>
+  <si>
+    <t>46 - 54 ms</t>
+  </si>
+  <si>
+    <t>2752 ms</t>
+  </si>
+  <si>
+    <t>48 - 51 ms</t>
+  </si>
+  <si>
+    <t>2757 ms</t>
   </si>
 </sst>
 </file>
@@ -145,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -190,7 +208,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -198,7 +218,22 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -209,16 +244,29 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -228,18 +276,37 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -251,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,28 +329,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +645,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" x14ac:dyDescent="0.3"/>
@@ -578,154 +654,189 @@
     <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
